--- a/kruti_kolesa_bot_aio/spares.xlsx
+++ b/kruti_kolesa_bot_aio/spares.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C460940-D8E9-40F2-A3F4-247BAF5E1D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -12,11 +13,16 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="277">
   <si>
     <t>Хомут подседельного штыря Minako</t>
   </si>
@@ -765,9 +771,6 @@
     <t>Рама и крепеж</t>
   </si>
   <si>
-    <t>Электроника (GPS/Датчики)</t>
-  </si>
-  <si>
     <t>Подвеска</t>
   </si>
   <si>
@@ -777,9 +780,6 @@
     <t>Электроника (BMS)</t>
   </si>
   <si>
-    <t>Трансмиссия (система шатунов)</t>
-  </si>
-  <si>
     <t>Крылья и защита</t>
   </si>
   <si>
@@ -798,9 +798,6 @@
     <t>Седло и подседельный штырь</t>
   </si>
   <si>
-    <t>Трансмиссия (цепь)</t>
-  </si>
-  <si>
     <t>Электроника (управление/свет)</t>
   </si>
   <si>
@@ -831,12 +828,6 @@
     <t>Трансмиссия (педали)</t>
   </si>
   <si>
-    <t>Трансмиссия (переключатели)</t>
-  </si>
-  <si>
-    <t>Электроника (свет)</t>
-  </si>
-  <si>
     <t>Электроника (датчики)</t>
   </si>
   <si>
@@ -855,28 +846,19 @@
     <t>Рулевое управление</t>
   </si>
   <si>
-    <t>Электропроводка (разъемы)</t>
-  </si>
-  <si>
     <t>Рама</t>
   </si>
   <si>
-    <t>Трансмиссия (манетки)</t>
-  </si>
-  <si>
-    <t>Электроника (безопасность)</t>
-  </si>
-  <si>
-    <t>Трансмиссия (трещотка/кассета)</t>
-  </si>
-  <si>
-    <t>Тормозная система (гидравлика)</t>
+    <t>Трансмиссия</t>
+  </si>
+  <si>
+    <t>Электроника</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -937,6 +919,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -984,7 +969,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1017,9 +1002,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1052,6 +1054,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1227,11 +1246,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,7 +1280,7 @@
         <v>245</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1272,7 +1291,7 @@
         <v>245</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1283,7 +1302,7 @@
         <v>245</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1294,7 +1313,7 @@
         <v>246</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1305,7 +1324,7 @@
         <v>246</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1316,7 +1335,7 @@
         <v>246</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1327,7 +1346,7 @@
         <v>246</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1335,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1343,7 +1362,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1354,7 +1373,7 @@
         <v>245</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1365,7 +1384,7 @@
         <v>246</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1376,7 +1395,7 @@
         <v>247</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1387,7 +1406,7 @@
         <v>245</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1398,7 +1417,7 @@
         <v>245</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1420,7 +1439,7 @@
         <v>245</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1431,7 +1450,7 @@
         <v>245</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1442,7 +1461,7 @@
         <v>245</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1453,7 +1472,7 @@
         <v>245</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1464,7 +1483,7 @@
         <v>245</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1475,7 +1494,7 @@
         <v>245</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1486,7 +1505,7 @@
         <v>245</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1497,7 +1516,7 @@
         <v>245</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1508,7 +1527,7 @@
         <v>245</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1519,7 +1538,7 @@
         <v>245</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1530,7 +1549,7 @@
         <v>245</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1541,7 +1560,7 @@
         <v>245</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1552,7 +1571,7 @@
         <v>245</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1563,7 +1582,7 @@
         <v>245</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1574,7 +1593,7 @@
         <v>245</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1585,7 +1604,7 @@
         <v>245</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1596,7 +1615,7 @@
         <v>246</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1607,7 +1626,7 @@
         <v>245</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1618,7 +1637,7 @@
         <v>245</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1629,7 +1648,7 @@
         <v>247</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1637,7 +1656,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1645,7 +1664,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1656,7 +1675,7 @@
         <v>245</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1667,7 +1686,7 @@
         <v>245</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1678,7 +1697,7 @@
         <v>245</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1689,7 +1708,7 @@
         <v>245</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1700,7 +1719,7 @@
         <v>245</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1711,7 +1730,7 @@
         <v>245</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1722,7 +1741,7 @@
         <v>245</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1733,7 +1752,7 @@
         <v>247</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1744,7 +1763,7 @@
         <v>247</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1755,7 +1774,7 @@
         <v>245</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1766,7 +1785,7 @@
         <v>245</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1774,7 +1793,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1782,7 +1801,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1790,7 +1809,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1801,7 +1820,7 @@
         <v>247</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1812,7 +1831,7 @@
         <v>245</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1823,7 +1842,7 @@
         <v>245</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1834,7 +1853,7 @@
         <v>245</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1845,7 +1864,7 @@
         <v>245</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1856,7 +1875,7 @@
         <v>245</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1867,7 +1886,7 @@
         <v>245</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1878,7 +1897,7 @@
         <v>246</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1889,7 +1908,7 @@
         <v>245</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1900,7 +1919,7 @@
         <v>247</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1908,7 +1927,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1916,7 +1935,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1927,7 +1946,7 @@
         <v>247</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1938,7 +1957,7 @@
         <v>245</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1949,7 +1968,7 @@
         <v>245</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1960,7 +1979,7 @@
         <v>245</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1971,7 +1990,7 @@
         <v>245</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1982,7 +2001,7 @@
         <v>245</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -1993,7 +2012,7 @@
         <v>245</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2004,7 +2023,7 @@
         <v>245</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2015,7 +2034,7 @@
         <v>245</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2026,7 +2045,7 @@
         <v>245</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2037,7 +2056,7 @@
         <v>245</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2048,7 +2067,7 @@
         <v>245</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2059,7 +2078,7 @@
         <v>245</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2070,7 +2089,7 @@
         <v>245</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2081,7 +2100,7 @@
         <v>245</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2092,7 +2111,7 @@
         <v>245</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2103,7 +2122,7 @@
         <v>245</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2114,7 +2133,7 @@
         <v>245</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2125,7 +2144,7 @@
         <v>247</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2136,7 +2155,7 @@
         <v>247</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2147,7 +2166,7 @@
         <v>247</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2158,7 +2177,7 @@
         <v>246</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2169,7 +2188,7 @@
         <v>246</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2180,7 +2199,7 @@
         <v>245</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2191,7 +2210,7 @@
         <v>245</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2202,7 +2221,7 @@
         <v>245</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2213,7 +2232,7 @@
         <v>245</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2224,7 +2243,7 @@
         <v>245</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2235,7 +2254,7 @@
         <v>245</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2246,7 +2265,7 @@
         <v>245</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2257,7 +2276,7 @@
         <v>245</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2268,7 +2287,7 @@
         <v>245</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2279,7 +2298,7 @@
         <v>245</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2290,7 +2309,7 @@
         <v>245</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2301,7 +2320,7 @@
         <v>245</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2312,7 +2331,7 @@
         <v>245</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2320,7 +2339,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2331,7 +2350,7 @@
         <v>247</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2339,7 +2358,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2350,7 +2369,7 @@
         <v>247</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -2361,7 +2380,7 @@
         <v>245</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2372,7 +2391,7 @@
         <v>245</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -2383,7 +2402,7 @@
         <v>245</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -2394,7 +2413,7 @@
         <v>245</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -2405,7 +2424,7 @@
         <v>245</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -2416,7 +2435,7 @@
         <v>245</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2427,7 +2446,7 @@
         <v>247</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2435,7 +2454,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -2446,7 +2465,7 @@
         <v>245</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -2457,7 +2476,7 @@
         <v>245</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -2468,7 +2487,7 @@
         <v>245</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -2479,7 +2498,7 @@
         <v>245</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -2490,7 +2509,7 @@
         <v>245</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -2501,7 +2520,7 @@
         <v>245</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2512,7 +2531,7 @@
         <v>247</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2523,7 +2542,7 @@
         <v>245</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2534,7 +2553,7 @@
         <v>245</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2545,7 +2564,7 @@
         <v>245</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2556,7 +2575,7 @@
         <v>245</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2564,7 +2583,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -2575,7 +2594,7 @@
         <v>245</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2583,7 +2602,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -2594,7 +2613,7 @@
         <v>247</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -2605,7 +2624,7 @@
         <v>247</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -2616,7 +2635,7 @@
         <v>247</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2627,7 +2646,7 @@
         <v>245</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2638,7 +2657,7 @@
         <v>245</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2649,7 +2668,7 @@
         <v>245</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2660,7 +2679,7 @@
         <v>245</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2671,7 +2690,7 @@
         <v>245</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2679,7 +2698,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2690,7 +2709,7 @@
         <v>245</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2701,7 +2720,7 @@
         <v>245</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2712,7 +2731,7 @@
         <v>245</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -2723,7 +2742,7 @@
         <v>247</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -2734,7 +2753,7 @@
         <v>245</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -2745,7 +2764,7 @@
         <v>245</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2756,7 +2775,7 @@
         <v>245</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2767,7 +2786,7 @@
         <v>245</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2778,7 +2797,7 @@
         <v>245</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2789,7 +2808,7 @@
         <v>245</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2800,7 +2819,7 @@
         <v>245</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2811,7 +2830,7 @@
         <v>245</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2822,7 +2841,7 @@
         <v>245</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2833,7 +2852,7 @@
         <v>245</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2844,7 +2863,7 @@
         <v>245</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2855,7 +2874,7 @@
         <v>245</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2866,7 +2885,7 @@
         <v>245</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2877,7 +2896,7 @@
         <v>245</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2888,7 +2907,7 @@
         <v>245</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2899,7 +2918,7 @@
         <v>245</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2910,7 +2929,7 @@
         <v>245</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2921,7 +2940,7 @@
         <v>245</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2932,7 +2951,7 @@
         <v>245</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2943,7 +2962,7 @@
         <v>245</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2954,7 +2973,7 @@
         <v>247</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2965,7 +2984,7 @@
         <v>245</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2976,7 +2995,7 @@
         <v>245</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2987,7 +3006,7 @@
         <v>245</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2998,7 +3017,7 @@
         <v>245</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3009,7 +3028,7 @@
         <v>245</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3020,7 +3039,7 @@
         <v>245</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3031,7 +3050,7 @@
         <v>245</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3042,7 +3061,7 @@
         <v>245</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3053,7 +3072,7 @@
         <v>245</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3064,7 +3083,7 @@
         <v>246</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3075,7 +3094,7 @@
         <v>246</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3086,7 +3105,7 @@
         <v>245</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3097,7 +3116,7 @@
         <v>246</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3108,7 +3127,7 @@
         <v>246</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3119,7 +3138,7 @@
         <v>246</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3130,7 +3149,7 @@
         <v>245</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3141,7 +3160,7 @@
         <v>245</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3152,7 +3171,7 @@
         <v>247</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3163,7 +3182,7 @@
         <v>247</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3174,7 +3193,7 @@
         <v>245</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3182,7 +3201,7 @@
         <v>180</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3190,7 +3209,7 @@
         <v>181</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3198,7 +3217,7 @@
         <v>182</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3209,7 +3228,7 @@
         <v>245</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3217,7 +3236,7 @@
         <v>184</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3228,7 +3247,7 @@
         <v>245</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3239,7 +3258,7 @@
         <v>245</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3250,7 +3269,7 @@
         <v>245</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3261,7 +3280,7 @@
         <v>245</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3272,7 +3291,7 @@
         <v>245</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3283,7 +3302,7 @@
         <v>245</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3294,7 +3313,7 @@
         <v>245</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3305,7 +3324,7 @@
         <v>245</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3316,7 +3335,7 @@
         <v>245</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3327,7 +3346,7 @@
         <v>245</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3338,7 +3357,7 @@
         <v>245</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3349,7 +3368,7 @@
         <v>245</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3360,7 +3379,7 @@
         <v>245</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3371,7 +3390,7 @@
         <v>245</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3382,7 +3401,7 @@
         <v>245</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3393,7 +3412,7 @@
         <v>245</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -3404,7 +3423,7 @@
         <v>245</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -3415,7 +3434,7 @@
         <v>245</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3423,7 +3442,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3434,7 +3453,7 @@
         <v>245</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3445,7 +3464,7 @@
         <v>245</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3456,7 +3475,7 @@
         <v>245</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3467,7 +3486,7 @@
         <v>245</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3478,7 +3497,7 @@
         <v>245</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3489,7 +3508,7 @@
         <v>245</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3500,7 +3519,7 @@
         <v>245</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3511,7 +3530,7 @@
         <v>247</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3522,7 +3541,7 @@
         <v>247</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3533,7 +3552,7 @@
         <v>245</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3544,7 +3563,7 @@
         <v>245</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3555,7 +3574,7 @@
         <v>245</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3566,7 +3585,7 @@
         <v>245</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3577,7 +3596,7 @@
         <v>245</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -3588,7 +3607,7 @@
         <v>245</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -3599,7 +3618,7 @@
         <v>247</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -3607,7 +3626,7 @@
         <v>220</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3618,7 +3637,7 @@
         <v>247</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3629,7 +3648,7 @@
         <v>245</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3637,7 +3656,7 @@
         <v>223</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3648,7 +3667,7 @@
         <v>245</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3659,7 +3678,7 @@
         <v>245</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3670,7 +3689,7 @@
         <v>245</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3681,7 +3700,7 @@
         <v>245</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3692,7 +3711,7 @@
         <v>245</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3703,7 +3722,7 @@
         <v>245</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3714,7 +3733,7 @@
         <v>245</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -3722,7 +3741,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3733,7 +3752,7 @@
         <v>245</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3744,7 +3763,7 @@
         <v>247</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3755,7 +3774,7 @@
         <v>247</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -3766,7 +3785,7 @@
         <v>247</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -3777,7 +3796,7 @@
         <v>247</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -3788,7 +3807,7 @@
         <v>245</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3799,7 +3818,7 @@
         <v>247</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -3810,7 +3829,7 @@
         <v>245</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -3821,7 +3840,7 @@
         <v>245</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -3832,7 +3851,7 @@
         <v>245</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -3843,7 +3862,7 @@
         <v>245</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3854,7 +3873,7 @@
         <v>245</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3862,7 +3881,7 @@
         <v>244</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3872,7 +3891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3884,7 +3903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/kruti_kolesa_bot_aio/spares.xlsx
+++ b/kruti_kolesa_bot_aio/spares.xlsx
@@ -3,17 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C460940-D8E9-40F2-A3F4-247BAF5E1D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80E96F6-6C55-4145-859C-A0D65FF24E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="7560" yWindow="345" windowWidth="12060" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -1247,21 +1256,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C245"/>
+  <dimension ref="A1:F245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView tabSelected="1" topLeftCell="A209" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A209" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="101.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="46.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1269,10 +1280,10 @@
         <v>245</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1280,10 +1291,12 @@
         <v>245</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1291,10 +1304,12 @@
         <v>245</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1302,10 +1317,12 @@
         <v>245</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1313,10 +1330,12 @@
         <v>246</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1324,10 +1343,12 @@
         <v>246</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1335,37 +1356,45 @@
         <v>246</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>246</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1373,10 +1402,12 @@
         <v>245</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1384,98 +1415,116 @@
         <v>246</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>247</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>245</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>245</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>245</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>245</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>245</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>245</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>245</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1483,10 +1532,12 @@
         <v>245</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1494,10 +1545,12 @@
         <v>245</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1505,10 +1558,12 @@
         <v>245</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1516,10 +1571,12 @@
         <v>245</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1527,10 +1584,12 @@
         <v>245</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1538,10 +1597,12 @@
         <v>245</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1549,54 +1610,64 @@
         <v>245</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>245</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>245</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>245</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>245</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1604,10 +1675,12 @@
         <v>245</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1615,10 +1688,12 @@
         <v>246</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1626,10 +1701,12 @@
         <v>245</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1637,10 +1714,12 @@
         <v>245</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1648,26 +1727,32 @@
         <v>247</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1675,10 +1760,12 @@
         <v>245</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1686,10 +1773,12 @@
         <v>245</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1697,10 +1786,12 @@
         <v>245</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1708,10 +1799,12 @@
         <v>245</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1719,10 +1812,12 @@
         <v>245</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1730,122 +1825,146 @@
         <v>245</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>245</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>247</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C46" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>247</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C47" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>245</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C48" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>245</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C51" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C52" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>247</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C53" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>245</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C54" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>245</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C55" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1853,10 +1972,12 @@
         <v>245</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1864,10 +1985,12 @@
         <v>245</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1875,10 +1998,12 @@
         <v>245</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1886,10 +2011,12 @@
         <v>245</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1897,312 +2024,370 @@
         <v>246</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>245</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C61" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>247</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C62" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C63" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C64" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>247</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C65" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>245</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C66" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>245</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C67" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>245</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C68" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>245</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C69" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>245</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C70" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>245</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C71" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>245</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C72" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>245</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C73" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>245</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C74" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>245</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C75" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>245</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C76" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>245</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C77" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>245</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C78" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>245</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C79" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>245</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C80" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>245</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C81" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>245</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C82" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>247</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C83" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>247</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C84" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>247</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C85" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>246</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C86" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>246</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C87" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>245</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C88" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -2210,10 +2395,12 @@
         <v>245</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -2221,128 +2408,152 @@
         <v>245</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>245</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C91" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>245</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C92" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>245</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C93" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>245</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C94" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>245</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C95" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>245</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C96" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>245</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C97" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>245</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C98" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>245</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C99" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>245</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C100" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -2350,51 +2561,61 @@
         <v>247</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C103" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>247</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="C104" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>245</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C105" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>245</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="C106" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -2402,10 +2623,12 @@
         <v>245</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -2413,10 +2636,12 @@
         <v>245</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -2424,10 +2649,12 @@
         <v>245</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -2435,10 +2662,12 @@
         <v>245</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -2446,188 +2675,224 @@
         <v>247</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>245</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="C113" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>245</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="C114" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>245</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="C115" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>245</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="C116" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>245</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="C117" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>245</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C118" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>247</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C119" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>245</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C120" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>245</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C121" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>245</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C122" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>245</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C123" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+    </row>
+    <row r="124" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="C124" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>245</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C125" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="C126" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>247</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="C127" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>247</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="C128" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -2635,10 +2900,12 @@
         <v>247</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -2646,10 +2913,12 @@
         <v>245</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+    </row>
+    <row r="131" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -2657,10 +2926,12 @@
         <v>245</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -2668,10 +2939,12 @@
         <v>245</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -2679,10 +2952,12 @@
         <v>245</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -2690,18 +2965,22 @@
         <v>245</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -2709,10 +2988,12 @@
         <v>245</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+    </row>
+    <row r="137" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -2720,10 +3001,12 @@
         <v>245</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+    </row>
+    <row r="138" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -2731,10 +3014,12 @@
         <v>245</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -2742,10 +3027,12 @@
         <v>247</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -2753,10 +3040,12 @@
         <v>245</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+    </row>
+    <row r="141" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -2764,10 +3053,12 @@
         <v>245</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+    </row>
+    <row r="142" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -2775,10 +3066,12 @@
         <v>245</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+    </row>
+    <row r="143" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -2786,10 +3079,12 @@
         <v>245</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+    </row>
+    <row r="144" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -2797,10 +3092,12 @@
         <v>245</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+    </row>
+    <row r="145" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -2808,10 +3105,12 @@
         <v>245</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+    </row>
+    <row r="146" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -2819,10 +3118,12 @@
         <v>245</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+    </row>
+    <row r="147" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -2830,10 +3131,12 @@
         <v>245</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+    </row>
+    <row r="148" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -2841,10 +3144,12 @@
         <v>245</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+    </row>
+    <row r="149" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -2852,10 +3157,12 @@
         <v>245</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+    </row>
+    <row r="150" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -2863,10 +3170,12 @@
         <v>245</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+    </row>
+    <row r="151" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -2874,76 +3183,90 @@
         <v>245</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+    </row>
+    <row r="152" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>245</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C152" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+    </row>
+    <row r="153" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>245</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C153" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+    </row>
+    <row r="154" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
       <c r="B154" t="s">
         <v>245</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C154" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+    </row>
+    <row r="155" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
       <c r="B155" t="s">
         <v>245</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C155" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+    </row>
+    <row r="156" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
       <c r="B156" t="s">
         <v>245</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C156" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+    </row>
+    <row r="157" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
       <c r="B157" t="s">
         <v>245</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C157" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+    </row>
+    <row r="158" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -2951,10 +3274,12 @@
         <v>245</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+    </row>
+    <row r="159" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -2962,10 +3287,12 @@
         <v>245</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+    </row>
+    <row r="160" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -2973,10 +3300,12 @@
         <v>247</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+    </row>
+    <row r="161" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -2984,10 +3313,12 @@
         <v>245</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+    </row>
+    <row r="162" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -2995,10 +3326,12 @@
         <v>245</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+    </row>
+    <row r="163" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -3006,10 +3339,12 @@
         <v>245</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+    </row>
+    <row r="164" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -3017,10 +3352,12 @@
         <v>245</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+    </row>
+    <row r="165" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -3028,10 +3365,12 @@
         <v>245</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+    </row>
+    <row r="166" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -3039,10 +3378,12 @@
         <v>245</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+    </row>
+    <row r="167" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -3050,10 +3391,12 @@
         <v>245</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+    </row>
+    <row r="168" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -3061,10 +3404,12 @@
         <v>245</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+    </row>
+    <row r="169" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -3072,10 +3417,12 @@
         <v>245</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+    </row>
+    <row r="170" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -3083,10 +3430,12 @@
         <v>246</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+    </row>
+    <row r="171" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -3094,10 +3443,12 @@
         <v>246</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+    </row>
+    <row r="172" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -3105,76 +3456,90 @@
         <v>245</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+    </row>
+    <row r="173" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
       <c r="B173" t="s">
         <v>246</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C173" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+    </row>
+    <row r="174" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
       <c r="B174" t="s">
         <v>246</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C174" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+    </row>
+    <row r="175" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
       <c r="B175" t="s">
         <v>246</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C175" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+    </row>
+    <row r="176" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
       <c r="B176" t="s">
         <v>245</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C176" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+    </row>
+    <row r="177" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
       <c r="B177" t="s">
         <v>245</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C177" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+    </row>
+    <row r="178" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
       <c r="B178" t="s">
         <v>247</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C178" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+    </row>
+    <row r="179" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -3182,10 +3547,12 @@
         <v>247</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+    </row>
+    <row r="180" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -3193,34 +3560,42 @@
         <v>245</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+    </row>
+    <row r="181" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+    </row>
+    <row r="182" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+    </row>
+    <row r="183" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+    </row>
+    <row r="184" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -3228,18 +3603,22 @@
         <v>245</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+    </row>
+    <row r="185" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+    </row>
+    <row r="186" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -3247,10 +3626,12 @@
         <v>245</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+    </row>
+    <row r="187" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -3258,109 +3639,129 @@
         <v>245</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+    </row>
+    <row r="188" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
       <c r="B188" t="s">
         <v>245</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C188" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+    </row>
+    <row r="189" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
       <c r="B189" t="s">
         <v>245</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C189" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+    </row>
+    <row r="190" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
       <c r="B190" t="s">
         <v>245</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C190" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+    </row>
+    <row r="191" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
       <c r="B191" t="s">
         <v>245</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C191" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+    </row>
+    <row r="192" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
       <c r="B192" t="s">
         <v>245</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C192" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+    </row>
+    <row r="193" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
       <c r="B193" t="s">
         <v>245</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C193" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+    </row>
+    <row r="194" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
       <c r="B194" t="s">
         <v>245</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C194" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+    </row>
+    <row r="195" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
       <c r="B195" t="s">
         <v>245</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C195" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+    </row>
+    <row r="196" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
       <c r="B196" t="s">
         <v>245</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C196" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+    </row>
+    <row r="197" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -3368,10 +3769,12 @@
         <v>245</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+    </row>
+    <row r="198" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -3379,10 +3782,12 @@
         <v>245</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+    </row>
+    <row r="199" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -3390,10 +3795,12 @@
         <v>245</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+    </row>
+    <row r="200" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -3401,10 +3808,12 @@
         <v>245</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+    </row>
+    <row r="201" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -3412,10 +3821,12 @@
         <v>245</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+    </row>
+    <row r="202" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -3423,10 +3834,12 @@
         <v>245</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+    </row>
+    <row r="203" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -3434,18 +3847,22 @@
         <v>245</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+    </row>
+    <row r="204" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+    </row>
+    <row r="205" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -3455,8 +3872,10 @@
       <c r="C205" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+    </row>
+    <row r="206" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -3464,54 +3883,64 @@
         <v>245</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+    </row>
+    <row r="207" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
       <c r="B207" t="s">
         <v>245</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C207" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+    </row>
+    <row r="208" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
       <c r="B208" t="s">
         <v>245</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C208" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+    </row>
+    <row r="209" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
       <c r="B209" t="s">
         <v>245</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C209" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+    </row>
+    <row r="210" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
       <c r="B210" t="s">
         <v>245</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C210" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+    </row>
+    <row r="211" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -3519,10 +3948,12 @@
         <v>245</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+    </row>
+    <row r="212" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -3530,65 +3961,67 @@
         <v>247</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+    </row>
+    <row r="213" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
       <c r="B213" t="s">
         <v>247</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C213" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
       <c r="B214" t="s">
         <v>245</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C214" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
       <c r="B215" t="s">
         <v>245</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C215" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
       <c r="B216" t="s">
         <v>245</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C216" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
       <c r="B217" t="s">
         <v>245</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C217" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -3596,10 +4029,10 @@
         <v>245</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -3607,56 +4040,56 @@
         <v>245</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
       <c r="B220" t="s">
         <v>247</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="C220" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C221" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
       <c r="B222" t="s">
         <v>247</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C222" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
       <c r="B223" t="s">
         <v>245</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C223" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>264</v>
+      <c r="C224" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3666,8 +4099,8 @@
       <c r="B225" t="s">
         <v>245</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>276</v>
+      <c r="C225" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3677,8 +4110,8 @@
       <c r="B226" t="s">
         <v>245</v>
       </c>
-      <c r="C226" s="2" t="s">
-        <v>276</v>
+      <c r="C226" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3688,8 +4121,8 @@
       <c r="B227" t="s">
         <v>245</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>276</v>
+      <c r="C227" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3699,7 +4132,7 @@
       <c r="B228" t="s">
         <v>245</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C228" s="1" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3710,8 +4143,8 @@
       <c r="B229" t="s">
         <v>245</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>276</v>
+      <c r="C229" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3721,8 +4154,8 @@
       <c r="B230" t="s">
         <v>245</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>276</v>
+      <c r="C230" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3732,16 +4165,16 @@
       <c r="B231" t="s">
         <v>245</v>
       </c>
-      <c r="C231" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="C231" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3752,7 +4185,7 @@
         <v>245</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3763,7 +4196,7 @@
         <v>247</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3774,10 +4207,10 @@
         <v>247</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -3785,10 +4218,10 @@
         <v>247</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -3796,10 +4229,10 @@
         <v>247</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -3807,7 +4240,7 @@
         <v>245</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3818,10 +4251,10 @@
         <v>247</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -3829,10 +4262,10 @@
         <v>245</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -3840,10 +4273,10 @@
         <v>245</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -3851,10 +4284,10 @@
         <v>245</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -3862,7 +4295,7 @@
         <v>245</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3873,7 +4306,7 @@
         <v>245</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -3881,10 +4314,13 @@
         <v>244</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C1:C245">
+    <sortCondition ref="C1:C245"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/kruti_kolesa_bot_aio/spares.xlsx
+++ b/kruti_kolesa_bot_aio/spares.xlsx
@@ -3,26 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80E96F6-6C55-4145-859C-A0D65FF24E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916D4A2D-F571-4D95-8677-F3158D93D88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7560" yWindow="345" windowWidth="12060" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -31,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="269">
   <si>
     <t>Хомут подседельного штыря Minako</t>
   </si>
@@ -786,9 +777,6 @@
     <t>Тормозная система</t>
   </si>
   <si>
-    <t>Электроника (BMS)</t>
-  </si>
-  <si>
     <t>Крылья и защита</t>
   </si>
   <si>
@@ -801,48 +789,21 @@
     <t>Электропроводка</t>
   </si>
   <si>
-    <t>Управление (руль)</t>
-  </si>
-  <si>
     <t>Седло и подседельный штырь</t>
   </si>
   <si>
-    <t>Электроника (управление/свет)</t>
-  </si>
-  <si>
     <t>Колеса и покрышки</t>
   </si>
   <si>
-    <t>Трансмиссия (каретка)</t>
-  </si>
-  <si>
-    <t>Трансмиссия (кассета)</t>
-  </si>
-  <si>
-    <t>Электроника (контроллер)</t>
-  </si>
-  <si>
     <t>Мотор-колесо</t>
   </si>
   <si>
     <t>Тросы и оболочки</t>
   </si>
   <si>
-    <t>Кузовные элементы (облицовка)</t>
-  </si>
-  <si>
     <t>Колеса и втулки</t>
   </si>
   <si>
-    <t>Трансмиссия (педали)</t>
-  </si>
-  <si>
-    <t>Электроника (датчики)</t>
-  </si>
-  <si>
-    <t>Электроника (управление)</t>
-  </si>
-  <si>
     <t>Подножка</t>
   </si>
   <si>
@@ -862,6 +823,12 @@
   </si>
   <si>
     <t>Электроника</t>
+  </si>
+  <si>
+    <t>Управление</t>
+  </si>
+  <si>
+    <t>Кузовные элементы</t>
   </si>
 </sst>
 </file>
@@ -1256,23 +1223,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F245"/>
+  <dimension ref="A1:C245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A209" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="101.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="46.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1280,10 +1245,10 @@
         <v>245</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1291,12 +1256,10 @@
         <v>245</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1304,12 +1267,10 @@
         <v>245</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1317,12 +1278,10 @@
         <v>245</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1330,12 +1289,10 @@
         <v>246</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1343,12 +1300,10 @@
         <v>246</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1356,45 +1311,37 @@
         <v>246</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>246</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1402,12 +1349,10 @@
         <v>245</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1415,116 +1360,98 @@
         <v>246</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>247</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>245</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>245</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>245</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>245</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>245</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>245</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>245</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1532,12 +1459,10 @@
         <v>245</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1545,12 +1470,10 @@
         <v>245</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1558,12 +1481,10 @@
         <v>245</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1571,12 +1492,10 @@
         <v>245</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1584,12 +1503,10 @@
         <v>245</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1597,12 +1514,10 @@
         <v>245</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1610,64 +1525,54 @@
         <v>245</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>245</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>245</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>245</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>245</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1675,12 +1580,10 @@
         <v>245</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1690,10 +1593,8 @@
       <c r="C33" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1701,12 +1602,10 @@
         <v>245</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1714,12 +1613,10 @@
         <v>245</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1727,32 +1624,26 @@
         <v>247</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1760,12 +1651,10 @@
         <v>245</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1773,12 +1662,10 @@
         <v>245</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1786,12 +1673,10 @@
         <v>245</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1799,12 +1684,10 @@
         <v>245</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1812,12 +1695,10 @@
         <v>245</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1825,146 +1706,122 @@
         <v>245</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>245</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>247</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>247</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>245</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>245</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>247</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>245</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>245</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1972,12 +1829,10 @@
         <v>245</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1985,12 +1840,10 @@
         <v>245</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1998,12 +1851,10 @@
         <v>245</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -2011,12 +1862,10 @@
         <v>245</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -2024,370 +1873,312 @@
         <v>246</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>245</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>247</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>247</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>245</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>245</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C67" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>245</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C68" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>245</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>245</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>245</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>245</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C72" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>245</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>245</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>245</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>245</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C76" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>245</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>245</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>245</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C79" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>245</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C80" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>245</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C81" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>245</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C82" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>247</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C83" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>247</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C84" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>247</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C85" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>246</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C86" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>246</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C87" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>245</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C88" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -2395,12 +2186,10 @@
         <v>245</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -2408,152 +2197,128 @@
         <v>245</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>245</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C91" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>245</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C92" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>245</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C93" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>245</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C94" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>245</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C95" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>245</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C96" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>245</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C97" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>245</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C98" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>245</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C99" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>245</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C100" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -2561,61 +2326,51 @@
         <v>247</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C103" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>247</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C104" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>245</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C105" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>245</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="C106" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -2623,12 +2378,10 @@
         <v>245</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -2636,12 +2389,10 @@
         <v>245</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -2649,12 +2400,10 @@
         <v>245</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -2662,12 +2411,10 @@
         <v>245</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -2675,224 +2422,188 @@
         <v>247</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>245</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-    </row>
-    <row r="114" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C113" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>245</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C114" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>245</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C115" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>245</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-    </row>
-    <row r="117" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C116" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>245</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-    </row>
-    <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C117" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>245</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-    </row>
-    <row r="119" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C118" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>247</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C119" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>245</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-    </row>
-    <row r="121" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C120" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>245</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-    </row>
-    <row r="122" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C121" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>245</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-    </row>
-    <row r="123" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C122" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>245</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-    </row>
-    <row r="124" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C123" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-    </row>
-    <row r="125" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C124" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>245</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-    </row>
-    <row r="126" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C125" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-    </row>
-    <row r="127" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C126" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>247</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-    </row>
-    <row r="128" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C127" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>247</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-    </row>
-    <row r="129" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C128" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -2900,12 +2611,10 @@
         <v>247</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-    </row>
-    <row r="130" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -2913,12 +2622,10 @@
         <v>245</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-    </row>
-    <row r="131" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -2926,12 +2633,10 @@
         <v>245</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-    </row>
-    <row r="132" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -2939,12 +2644,10 @@
         <v>245</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-    </row>
-    <row r="133" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -2952,12 +2655,10 @@
         <v>245</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-    </row>
-    <row r="134" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -2965,22 +2666,18 @@
         <v>245</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-    </row>
-    <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-    </row>
-    <row r="136" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -2988,12 +2685,10 @@
         <v>245</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-    </row>
-    <row r="137" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -3001,12 +2696,10 @@
         <v>245</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-    </row>
-    <row r="138" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -3014,12 +2707,10 @@
         <v>245</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-    </row>
-    <row r="139" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -3027,12 +2718,10 @@
         <v>247</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-    </row>
-    <row r="140" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -3040,12 +2729,10 @@
         <v>245</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-    </row>
-    <row r="141" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -3053,12 +2740,10 @@
         <v>245</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-    </row>
-    <row r="142" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -3066,12 +2751,10 @@
         <v>245</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-    </row>
-    <row r="143" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -3079,12 +2762,10 @@
         <v>245</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-    </row>
-    <row r="144" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -3092,12 +2773,10 @@
         <v>245</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-    </row>
-    <row r="145" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -3105,12 +2784,10 @@
         <v>245</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-    </row>
-    <row r="146" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -3118,12 +2795,10 @@
         <v>245</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-    </row>
-    <row r="147" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -3131,12 +2806,10 @@
         <v>245</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-    </row>
-    <row r="148" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -3144,12 +2817,10 @@
         <v>245</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-    </row>
-    <row r="149" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -3157,12 +2828,10 @@
         <v>245</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-    </row>
-    <row r="150" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -3170,12 +2839,10 @@
         <v>245</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-    </row>
-    <row r="151" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -3183,90 +2850,76 @@
         <v>245</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-    </row>
-    <row r="152" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>245</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-    </row>
-    <row r="153" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C152" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>245</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-    </row>
-    <row r="154" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C153" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
       <c r="B154" t="s">
         <v>245</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-    </row>
-    <row r="155" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C154" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
       <c r="B155" t="s">
         <v>245</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-    </row>
-    <row r="156" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C155" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
       <c r="B156" t="s">
         <v>245</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-    </row>
-    <row r="157" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C156" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
       <c r="B157" t="s">
         <v>245</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-    </row>
-    <row r="158" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C157" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -3274,12 +2927,10 @@
         <v>245</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-    </row>
-    <row r="159" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -3287,12 +2938,10 @@
         <v>245</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-    </row>
-    <row r="160" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -3300,12 +2949,10 @@
         <v>247</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-    </row>
-    <row r="161" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -3313,12 +2960,10 @@
         <v>245</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-    </row>
-    <row r="162" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -3326,12 +2971,10 @@
         <v>245</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-    </row>
-    <row r="163" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -3339,12 +2982,10 @@
         <v>245</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-    </row>
-    <row r="164" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -3352,12 +2993,10 @@
         <v>245</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-    </row>
-    <row r="165" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -3365,12 +3004,10 @@
         <v>245</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-    </row>
-    <row r="166" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -3378,12 +3015,10 @@
         <v>245</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-    </row>
-    <row r="167" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -3391,12 +3026,10 @@
         <v>245</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-    </row>
-    <row r="168" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -3404,12 +3037,10 @@
         <v>245</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-    </row>
-    <row r="169" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -3417,12 +3048,10 @@
         <v>245</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-    </row>
-    <row r="170" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -3430,12 +3059,10 @@
         <v>246</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-    </row>
-    <row r="171" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -3443,12 +3070,10 @@
         <v>246</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-    </row>
-    <row r="172" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -3456,90 +3081,76 @@
         <v>245</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-    </row>
-    <row r="173" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
       <c r="B173" t="s">
         <v>246</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-    </row>
-    <row r="174" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C173" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
       <c r="B174" t="s">
         <v>246</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-    </row>
-    <row r="175" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C174" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
       <c r="B175" t="s">
         <v>246</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-    </row>
-    <row r="176" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C175" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
       <c r="B176" t="s">
         <v>245</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-    </row>
-    <row r="177" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C176" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
       <c r="B177" t="s">
         <v>245</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-    </row>
-    <row r="178" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C177" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
       <c r="B178" t="s">
         <v>247</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-    </row>
-    <row r="179" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C178" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -3547,12 +3158,10 @@
         <v>247</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-    </row>
-    <row r="180" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -3560,42 +3169,34 @@
         <v>245</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-    </row>
-    <row r="181" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-    </row>
-    <row r="182" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
-    </row>
-    <row r="183" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
-    </row>
-    <row r="184" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -3603,22 +3204,21 @@
         <v>245</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-    </row>
-    <row r="185" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
+      <c r="B185" t="s">
+        <v>247</v>
+      </c>
       <c r="C185" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
-    </row>
-    <row r="186" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -3626,12 +3226,10 @@
         <v>245</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
-    </row>
-    <row r="187" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -3639,129 +3237,109 @@
         <v>245</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-    </row>
-    <row r="188" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
       <c r="B188" t="s">
         <v>245</v>
       </c>
-      <c r="C188" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-    </row>
-    <row r="189" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C188" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
       <c r="B189" t="s">
         <v>245</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-    </row>
-    <row r="190" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C189" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
       <c r="B190" t="s">
         <v>245</v>
       </c>
-      <c r="C190" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
-    </row>
-    <row r="191" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C190" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
       <c r="B191" t="s">
         <v>245</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
-    </row>
-    <row r="192" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C191" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
       <c r="B192" t="s">
         <v>245</v>
       </c>
-      <c r="C192" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
-    </row>
-    <row r="193" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C192" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
       <c r="B193" t="s">
         <v>245</v>
       </c>
-      <c r="C193" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
-    </row>
-    <row r="194" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C193" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
       <c r="B194" t="s">
         <v>245</v>
       </c>
-      <c r="C194" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
-    </row>
-    <row r="195" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C194" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
       <c r="B195" t="s">
         <v>245</v>
       </c>
-      <c r="C195" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
-    </row>
-    <row r="196" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C195" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
       <c r="B196" t="s">
         <v>245</v>
       </c>
-      <c r="C196" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E196" s="1"/>
-      <c r="F196" s="1"/>
-    </row>
-    <row r="197" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C196" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -3769,12 +3347,10 @@
         <v>245</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
-    </row>
-    <row r="198" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -3782,12 +3358,10 @@
         <v>245</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
-    </row>
-    <row r="199" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -3795,12 +3369,10 @@
         <v>245</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
-    </row>
-    <row r="200" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -3808,12 +3380,10 @@
         <v>245</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-    </row>
-    <row r="201" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -3821,12 +3391,10 @@
         <v>245</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
-    </row>
-    <row r="202" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -3834,12 +3402,10 @@
         <v>245</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
-    </row>
-    <row r="203" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -3847,22 +3413,18 @@
         <v>245</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
-    </row>
-    <row r="204" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
-    </row>
-    <row r="205" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -3870,12 +3432,10 @@
         <v>245</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E205" s="1"/>
-      <c r="F205" s="1"/>
-    </row>
-    <row r="206" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -3883,64 +3443,54 @@
         <v>245</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
-    </row>
-    <row r="207" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
       <c r="B207" t="s">
         <v>245</v>
       </c>
-      <c r="C207" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E207" s="1"/>
-      <c r="F207" s="1"/>
-    </row>
-    <row r="208" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C207" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
       <c r="B208" t="s">
         <v>245</v>
       </c>
-      <c r="C208" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
-    </row>
-    <row r="209" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C208" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
       <c r="B209" t="s">
         <v>245</v>
       </c>
-      <c r="C209" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
-    </row>
-    <row r="210" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C209" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
       <c r="B210" t="s">
         <v>245</v>
       </c>
-      <c r="C210" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
-    </row>
-    <row r="211" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C210" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -3948,12 +3498,10 @@
         <v>245</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
-    </row>
-    <row r="212" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -3961,67 +3509,65 @@
         <v>247</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
-    </row>
-    <row r="213" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
       <c r="B213" t="s">
         <v>247</v>
       </c>
-      <c r="C213" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C213" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
       <c r="B214" t="s">
         <v>245</v>
       </c>
-      <c r="C214" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C214" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
       <c r="B215" t="s">
         <v>245</v>
       </c>
-      <c r="C215" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C215" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
       <c r="B216" t="s">
         <v>245</v>
       </c>
-      <c r="C216" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C216" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
       <c r="B217" t="s">
         <v>245</v>
       </c>
-      <c r="C217" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C217" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -4029,10 +3575,10 @@
         <v>245</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -4040,56 +3586,62 @@
         <v>245</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
       <c r="B220" t="s">
         <v>247</v>
       </c>
-      <c r="C220" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C220" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
-      <c r="C221" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>247</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
       <c r="B222" t="s">
         <v>247</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="C222" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
       <c r="B223" t="s">
         <v>245</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="C223" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
-      <c r="C224" s="1" t="s">
-        <v>255</v>
+      <c r="B224" t="s">
+        <v>247</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -4099,8 +3651,8 @@
       <c r="B225" t="s">
         <v>245</v>
       </c>
-      <c r="C225" s="1" t="s">
-        <v>255</v>
+      <c r="C225" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -4110,8 +3662,8 @@
       <c r="B226" t="s">
         <v>245</v>
       </c>
-      <c r="C226" s="1" t="s">
-        <v>255</v>
+      <c r="C226" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -4121,8 +3673,8 @@
       <c r="B227" t="s">
         <v>245</v>
       </c>
-      <c r="C227" s="1" t="s">
-        <v>255</v>
+      <c r="C227" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -4132,8 +3684,8 @@
       <c r="B228" t="s">
         <v>245</v>
       </c>
-      <c r="C228" s="1" t="s">
-        <v>255</v>
+      <c r="C228" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -4143,8 +3695,8 @@
       <c r="B229" t="s">
         <v>245</v>
       </c>
-      <c r="C229" s="1" t="s">
-        <v>255</v>
+      <c r="C229" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -4154,8 +3706,8 @@
       <c r="B230" t="s">
         <v>245</v>
       </c>
-      <c r="C230" s="1" t="s">
-        <v>255</v>
+      <c r="C230" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -4165,13 +3717,16 @@
       <c r="B231" t="s">
         <v>245</v>
       </c>
-      <c r="C231" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C231" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>247</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>255</v>
@@ -4185,7 +3740,7 @@
         <v>245</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -4196,7 +3751,7 @@
         <v>247</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -4207,7 +3762,7 @@
         <v>247</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -4218,7 +3773,7 @@
         <v>247</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -4229,7 +3784,7 @@
         <v>247</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -4240,7 +3795,7 @@
         <v>245</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -4251,7 +3806,7 @@
         <v>247</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -4262,7 +3817,7 @@
         <v>245</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -4273,7 +3828,7 @@
         <v>245</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -4284,7 +3839,7 @@
         <v>245</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -4295,7 +3850,7 @@
         <v>245</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -4306,21 +3861,21 @@
         <v>245</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
+      <c r="B245" t="s">
+        <v>247</v>
+      </c>
       <c r="C245" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C1:C245">
-    <sortCondition ref="C1:C245"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
